--- a/DbLayouts/L4-批次作業/PostDeductMedia.xlsx
+++ b/DbLayouts/L4-批次作業/PostDeductMedia.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="203">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -182,10 +182,6 @@
   <si>
     <t>MediaDate,MediaSeq</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>會計日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BatchNo</t>
@@ -1988,6 +1984,14 @@
 98 其他        
 </t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計日期</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>提回會計日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2300,7 +2304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2486,6 +2490,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2794,19 +2801,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="21.5" style="7"/>
+    <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2815,7 +2822,7 @@
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
@@ -2828,7 +2835,7 @@
       <c r="A2" s="51"/>
       <c r="B2" s="52"/>
       <c r="C2" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -2869,7 +2876,7 @@
       </c>
       <c r="B5" s="54"/>
       <c r="C5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -2926,13 +2933,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="23">
         <v>8</v>
@@ -2993,12 +3000,12 @@
       </c>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="1:7" ht="181.5">
+    <row r="13" spans="1:7" ht="178.2">
       <c r="A13" s="19">
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>28</v>
@@ -3010,7 +3017,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3018,10 +3025,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>36</v>
@@ -3031,12 +3038,12 @@
       </c>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="1:7" ht="33">
+    <row r="15" spans="1:7" ht="32.4">
       <c r="A15" s="19">
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>29</v>
@@ -3048,15 +3055,15 @@
         <v>2</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="33">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="32.4">
       <c r="A16" s="19">
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>30</v>
@@ -3068,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3076,7 +3083,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>31</v>
@@ -3088,10 +3095,10 @@
         <v>3</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="82.5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="81">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -3108,7 +3115,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3122,7 +3129,7 @@
         <v>33</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="23">
         <v>8</v>
@@ -3147,7 +3154,7 @@
       </c>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:7" ht="33">
+    <row r="21" spans="1:7" ht="48.6">
       <c r="A21" s="19">
         <v>14</v>
       </c>
@@ -3155,7 +3162,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>37</v>
@@ -3164,7 +3171,7 @@
         <v>20</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3184,7 +3191,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3192,16 +3199,19 @@
         <v>16</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="19">
         <v>8</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3209,10 +3219,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>46</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>37</v>
@@ -3226,13 +3236,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="E25" s="19">
         <v>6</v>
@@ -3243,13 +3253,13 @@
         <v>19</v>
       </c>
       <c r="B26" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="D26" s="25" t="s">
         <v>68</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>69</v>
       </c>
       <c r="E26" s="23"/>
       <c r="G26" s="24"/>
@@ -3259,13 +3269,13 @@
         <v>20</v>
       </c>
       <c r="B27" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="D27" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>72</v>
       </c>
       <c r="E27" s="23">
         <v>6</v>
@@ -3277,13 +3287,13 @@
         <v>21</v>
       </c>
       <c r="B28" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>74</v>
-      </c>
       <c r="D28" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" s="23"/>
       <c r="G28" s="24"/>
@@ -3293,13 +3303,13 @@
         <v>22</v>
       </c>
       <c r="B29" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>76</v>
-      </c>
       <c r="D29" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="23">
         <v>6</v>
@@ -3328,13 +3338,13 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
@@ -3352,32 +3362,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3391,26 +3401,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
     <col min="9" max="9" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="49.5">
+    <row r="1" spans="1:9" ht="48.6">
       <c r="A1" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -3420,12 +3430,12 @@
       <c r="G1" s="58"/>
       <c r="H1" s="27"/>
       <c r="I1" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="58"/>
       <c r="C2" s="58"/>
@@ -3438,7 +3448,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
@@ -3460,30 +3470,30 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" ht="65.25">
+    <row r="5" spans="1:9" ht="64.2">
       <c r="A5" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="C5" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="D5" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="E5" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="F5" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="G5" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="H5" s="34" t="s">
         <v>94</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>95</v>
       </c>
       <c r="I5" s="27"/>
     </row>
@@ -3492,52 +3502,52 @@
         <v>1</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="35">
         <v>1</v>
       </c>
       <c r="D6" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="F6" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="38" t="s">
-        <v>99</v>
-      </c>
       <c r="G6" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" ht="33">
+    <row r="7" spans="1:9" ht="32.4">
       <c r="A7" s="35">
         <v>2</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="35">
         <v>2</v>
       </c>
       <c r="D7" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="F7" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="38" t="s">
-        <v>103</v>
-      </c>
       <c r="G7" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" ht="48.75">
+    <row r="8" spans="1:9" ht="48.6">
       <c r="A8" s="35">
         <v>3</v>
       </c>
@@ -3545,26 +3555,26 @@
         <v>31</v>
       </c>
       <c r="C8" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="E8" s="37" t="s">
         <v>105</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>106</v>
       </c>
       <c r="F8" s="38">
         <v>846</v>
       </c>
       <c r="G8" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="38" t="s">
-        <v>108</v>
-      </c>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:9" ht="49.5">
+    <row r="9" spans="1:9" ht="48.6">
       <c r="A9" s="35">
         <v>4</v>
       </c>
@@ -3572,44 +3582,44 @@
         <v>32</v>
       </c>
       <c r="C9" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="E9" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="F9" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="G9" s="37" t="s">
         <v>112</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>113</v>
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:9" ht="32.25">
+    <row r="10" spans="1:9" ht="31.8">
       <c r="A10" s="35">
         <v>5</v>
       </c>
       <c r="B10" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="D10" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="E10" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="F10" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="37" t="s">
-        <v>118</v>
-      </c>
       <c r="G10" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="27"/>
@@ -3619,22 +3629,22 @@
         <v>6</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="35">
         <v>17</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="41" t="s">
-        <v>121</v>
-      </c>
       <c r="G11" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="27"/>
@@ -3644,27 +3654,27 @@
         <v>7</v>
       </c>
       <c r="B12" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="D12" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="E12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>125</v>
-      </c>
       <c r="G12" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:9" ht="33">
+    <row r="13" spans="1:9" ht="32.4">
       <c r="A13" s="60">
         <v>8</v>
       </c>
@@ -3672,36 +3682,36 @@
         <v>34</v>
       </c>
       <c r="C13" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="E13" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="F13" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="38" t="s">
-        <v>129</v>
-      </c>
       <c r="G13" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:9" ht="49.5">
+    <row r="14" spans="1:9" ht="48.6">
       <c r="A14" s="60"/>
       <c r="B14" s="61"/>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
       <c r="E14" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H14" s="56"/>
       <c r="I14" s="27"/>
@@ -3711,99 +3721,99 @@
         <v>9</v>
       </c>
       <c r="B15" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="D15" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>133</v>
-      </c>
       <c r="E15" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H15" s="37"/>
       <c r="I15" s="27"/>
     </row>
-    <row r="16" spans="1:9" ht="49.5">
+    <row r="16" spans="1:9" ht="48.6">
       <c r="A16" s="35">
         <v>10</v>
       </c>
       <c r="B16" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="D16" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="E16" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="F16" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="38" t="s">
-        <v>138</v>
-      </c>
       <c r="G16" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H16" s="37"/>
       <c r="I16" s="27"/>
     </row>
-    <row r="17" spans="1:9" ht="66">
+    <row r="17" spans="1:9" ht="81">
       <c r="A17" s="35">
         <v>11</v>
       </c>
       <c r="B17" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="D17" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="E17" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="G17" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="H17" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="F17" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>200</v>
-      </c>
       <c r="I17" s="27"/>
     </row>
-    <row r="18" spans="1:9" ht="114.75">
+    <row r="18" spans="1:9" ht="129">
       <c r="A18" s="35">
         <v>12</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18" s="35">
         <v>75</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="G18" s="37" t="s">
         <v>145</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>146</v>
       </c>
       <c r="H18" s="37"/>
       <c r="I18" s="27"/>
@@ -3813,124 +3823,124 @@
         <v>13</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C19" s="35">
         <v>76</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H19" s="37"/>
       <c r="I19" s="27"/>
     </row>
-    <row r="20" spans="1:9" ht="115.5">
+    <row r="20" spans="1:9" ht="129.6">
       <c r="A20" s="35">
         <v>14</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C20" s="35">
         <v>77</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H20" s="37"/>
       <c r="I20" s="27"/>
     </row>
-    <row r="21" spans="1:9" ht="66">
+    <row r="21" spans="1:9" ht="64.8">
       <c r="A21" s="35">
         <v>15</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C21" s="35">
         <v>78</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="F21" s="37" t="s">
-        <v>152</v>
-      </c>
       <c r="G21" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H21" s="37"/>
       <c r="I21" s="27"/>
     </row>
-    <row r="22" spans="1:9" ht="299.25">
+    <row r="22" spans="1:9" ht="303.60000000000002">
       <c r="A22" s="35">
         <v>16</v>
       </c>
       <c r="B22" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="D22" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="F22" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>125</v>
-      </c>
       <c r="G22" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I22" s="27"/>
     </row>
-    <row r="23" spans="1:9" ht="32.25">
+    <row r="23" spans="1:9" ht="31.8">
       <c r="A23" s="35">
         <v>17</v>
       </c>
       <c r="B23" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="D23" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="E23" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="F23" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="F23" s="37" t="s">
-        <v>160</v>
-      </c>
       <c r="G23" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H23" s="37"/>
       <c r="I23" s="27"/>
@@ -3940,47 +3950,47 @@
         <v>18</v>
       </c>
       <c r="B24" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="D24" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="D24" s="35" t="s">
-        <v>163</v>
-      </c>
       <c r="E24" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H24" s="37"/>
       <c r="I24" s="27"/>
     </row>
-    <row r="25" spans="1:9" ht="33">
+    <row r="25" spans="1:9" ht="32.4">
       <c r="A25" s="35">
         <v>19</v>
       </c>
       <c r="B25" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="D25" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="D25" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="37" t="s">
+      <c r="F25" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="37" t="s">
-        <v>167</v>
-      </c>
       <c r="G25" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H25" s="37"/>
       <c r="I25" s="27"/>
@@ -3990,22 +4000,22 @@
         <v>20</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H26" s="37"/>
       <c r="I26" s="27"/>
@@ -4056,7 +4066,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -4067,30 +4077,30 @@
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
     </row>
-    <row r="32" spans="1:9" ht="65.25">
+    <row r="32" spans="1:9" ht="64.2">
       <c r="A32" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="C32" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="D32" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="E32" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="F32" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="G32" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="H32" s="34" t="s">
         <v>94</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>95</v>
       </c>
       <c r="I32" s="27"/>
     </row>
@@ -4099,16 +4109,16 @@
         <v>1</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="43">
         <v>1</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F33" s="43">
         <v>2</v>
@@ -4130,16 +4140,16 @@
         <v>2</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G34" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H34" s="45"/>
       <c r="I34" s="27"/>
@@ -4152,44 +4162,44 @@
         <v>31</v>
       </c>
       <c r="C35" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="43" t="s">
-        <v>105</v>
-      </c>
       <c r="E35" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F35" s="43">
         <v>846</v>
       </c>
       <c r="G35" s="43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H35" s="45"/>
       <c r="I35" s="27"/>
     </row>
-    <row r="36" spans="1:9" ht="33">
+    <row r="36" spans="1:9" ht="32.4">
       <c r="A36" s="46">
         <v>4</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C36" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="43" t="s">
-        <v>110</v>
-      </c>
       <c r="E36" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F36" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G36" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H36" s="45"/>
       <c r="I36" s="27"/>
@@ -4199,22 +4209,22 @@
         <v>5</v>
       </c>
       <c r="B37" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="D37" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="43" t="s">
-        <v>116</v>
-      </c>
       <c r="E37" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H37" s="45"/>
       <c r="I37" s="27"/>
@@ -4224,22 +4234,22 @@
         <v>6</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G38" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H38" s="45"/>
       <c r="I38" s="27"/>
@@ -4249,47 +4259,47 @@
         <v>7</v>
       </c>
       <c r="B39" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="D39" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="D39" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" s="44" t="s">
+      <c r="F39" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="F39" s="43" t="s">
-        <v>179</v>
-      </c>
       <c r="G39" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H39" s="45"/>
       <c r="I39" s="27"/>
     </row>
-    <row r="40" spans="1:9" ht="49.5">
+    <row r="40" spans="1:9" ht="48.6">
       <c r="A40" s="43">
         <v>8</v>
       </c>
       <c r="B40" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="D40" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="E40" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="E40" s="44" t="s">
+      <c r="F40" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="F40" s="43" t="s">
-        <v>184</v>
-      </c>
       <c r="G40" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H40" s="45"/>
       <c r="I40" s="27"/>
@@ -4299,41 +4309,41 @@
         <v>9</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C41" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="D41" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="D41" s="43" t="s">
-        <v>186</v>
-      </c>
       <c r="E41" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G41" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H41" s="45"/>
       <c r="I41" s="27"/>
     </row>
-    <row r="42" spans="1:9" ht="33">
+    <row r="42" spans="1:9" ht="48.6">
       <c r="A42" s="43">
         <v>10</v>
       </c>
       <c r="B42" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="D42" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="44" t="s">
         <v>188</v>
-      </c>
-      <c r="D42" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" s="44" t="s">
-        <v>189</v>
       </c>
       <c r="F42" s="43">
         <v>0</v>
@@ -4346,21 +4356,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="33">
+    <row r="43" spans="1:9" ht="48.6">
       <c r="A43" s="43">
         <v>11</v>
       </c>
       <c r="B43" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="43" t="s">
-        <v>191</v>
-      </c>
       <c r="D43" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F43" s="43">
         <v>0</v>
@@ -4378,22 +4388,22 @@
         <v>12</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="D44" s="43" t="s">
-        <v>193</v>
-      </c>
       <c r="E44" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G44" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H44" s="45"/>
       <c r="I44" s="27"/>
